--- a/strategy/2024-02-18.xlsx
+++ b/strategy/2024-02-18.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,7 +495,7 @@
         <v>45340.1249884259</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>55</v>
+        <v>54.6</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -576,7 +576,7 @@
         <v>45340.2499884259</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -603,7 +603,7 @@
         <v>45340.2916550926</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -630,7 +630,7 @@
         <v>45340.3333217593</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -657,7 +657,7 @@
         <v>45340.3749884259</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -684,7 +684,7 @@
         <v>45340.4166550926</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -711,7 +711,7 @@
         <v>45340.4583217593</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -738,7 +738,7 @@
         <v>45340.4999884259</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -765,7 +765,7 @@
         <v>45340.5416550926</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -792,7 +792,7 @@
         <v>45340.5833217593</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -819,7 +819,7 @@
         <v>45340.6249884259</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -846,7 +846,7 @@
         <v>45340.6666550926</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>54.6</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">$H$3</f>
